--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT_NEW\master\src\test\resources\testdata\DataLoader\GenericUploader\NoTool\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA9E077-A138-451A-B940-B617E4FCDD2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222CB05-C057-47DF-8CB3-C48D690DF854}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="776" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="836">
   <si>
     <t>Title</t>
   </si>
@@ -2574,12 +2574,31 @@
   <si>
     <t>Issue_automationData</t>
   </si>
+  <si>
+    <t>50477</t>
+  </si>
+  <si>
+    <t>Issue_AutomationData_GenericUploader</t>
+  </si>
+  <si>
+    <t>27627</t>
+  </si>
+  <si>
+    <t>82001</t>
+  </si>
+  <si>
+    <t>74354</t>
+  </si>
+  <si>
+    <t>27151</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3500,11 +3519,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6328125" style="6"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="10.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="59.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="10.6328125" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="8.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3995,12 +4014,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6328125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="11" width="9.36328125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.36328125" style="3"/>
+    <col min="1" max="1" customWidth="true" style="1" width="39.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="49.6328125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="6" max="11" customWidth="true" style="3" width="9.36328125" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9613,55 +9632,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="28.36328125" customWidth="1"/>
-    <col min="33" max="33" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="30" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.54296875" customWidth="1"/>
-    <col min="44" max="44" width="29" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="29" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="9.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.6328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.54296875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.6328125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.6328125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.6328125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="25.54296875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="31" max="32" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="16.36328125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="15.08984375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="23.6328125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="20.36328125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -9829,11 +9848,11 @@
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>98763</v>
+      <c r="A2" t="s">
+        <v>835</v>
       </c>
       <c r="C2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -10140,21 +10159,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F589723C5CF9BF4888831BB2DC69A718" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d91ee2624ae14a4be9994568eb03d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc0735e1-1781-4e64-a3a6-cf1bacd21285" xmlns:ns3="acee2d6b-dd79-4fb3-8fb4-89e5568edfef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf92cc8814d37b02d77c323fc2a11963" ns2:_="" ns3:_="">
     <xsd:import namespace="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
@@ -10333,32 +10337,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10375,4 +10369,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="759">
   <si>
     <t>Title</t>
   </si>
@@ -2786,6 +2786,12 @@
   </si>
   <si>
     <t>18448</t>
+  </si>
+  <si>
+    <t>91053</t>
+  </si>
+  <si>
+    <t>57712</t>
   </si>
 </sst>
 </file>
@@ -8331,7 +8337,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="761">
   <si>
     <t>Title</t>
   </si>
@@ -2792,6 +2792,12 @@
   </si>
   <si>
     <t>57712</t>
+  </si>
+  <si>
+    <t>54802</t>
+  </si>
+  <si>
+    <t>19170</t>
   </si>
 </sst>
 </file>
@@ -8337,7 +8343,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="762">
   <si>
     <t>Title</t>
   </si>
@@ -2798,6 +2798,9 @@
   </si>
   <si>
     <t>19170</t>
+  </si>
+  <si>
+    <t>85337</t>
   </si>
 </sst>
 </file>
@@ -8343,7 +8346,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="764">
   <si>
     <t>Title</t>
   </si>
@@ -2801,6 +2801,12 @@
   </si>
   <si>
     <t>85337</t>
+  </si>
+  <si>
+    <t>51043</t>
+  </si>
+  <si>
+    <t>94601</t>
   </si>
 </sst>
 </file>
@@ -8346,7 +8352,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="766">
   <si>
     <t>Title</t>
   </si>
@@ -2807,6 +2807,12 @@
   </si>
   <si>
     <t>94601</t>
+  </si>
+  <si>
+    <t>25491</t>
+  </si>
+  <si>
+    <t>72418</t>
   </si>
 </sst>
 </file>
@@ -8352,7 +8358,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="767">
   <si>
     <t>Title</t>
   </si>
@@ -2813,6 +2813,9 @@
   </si>
   <si>
     <t>72418</t>
+  </si>
+  <si>
+    <t>97832</t>
   </si>
 </sst>
 </file>
@@ -8358,7 +8361,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="768">
   <si>
     <t>Title</t>
   </si>
@@ -2816,6 +2816,9 @@
   </si>
   <si>
     <t>97832</t>
+  </si>
+  <si>
+    <t>87821</t>
   </si>
 </sst>
 </file>
@@ -8361,7 +8364,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="773">
   <si>
     <t>Title</t>
   </si>
@@ -2819,6 +2819,21 @@
   </si>
   <si>
     <t>87821</t>
+  </si>
+  <si>
+    <t>14830</t>
+  </si>
+  <si>
+    <t>10132</t>
+  </si>
+  <si>
+    <t>35725</t>
+  </si>
+  <si>
+    <t>99446</t>
+  </si>
+  <si>
+    <t>78473</t>
   </si>
 </sst>
 </file>
@@ -8364,7 +8379,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="774">
   <si>
     <t>Title</t>
   </si>
@@ -2834,6 +2834,9 @@
   </si>
   <si>
     <t>78473</t>
+  </si>
+  <si>
+    <t>59688</t>
   </si>
 </sst>
 </file>
@@ -8379,7 +8382,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="776">
   <si>
     <t>Title</t>
   </si>
@@ -2837,6 +2837,12 @@
   </si>
   <si>
     <t>59688</t>
+  </si>
+  <si>
+    <t>11806</t>
+  </si>
+  <si>
+    <t>94347</t>
   </si>
 </sst>
 </file>
@@ -8382,7 +8388,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="787">
   <si>
     <t>Title</t>
   </si>
@@ -2843,6 +2843,39 @@
   </si>
   <si>
     <t>94347</t>
+  </si>
+  <si>
+    <t>39900</t>
+  </si>
+  <si>
+    <t>18196</t>
+  </si>
+  <si>
+    <t>99554</t>
+  </si>
+  <si>
+    <t>48407</t>
+  </si>
+  <si>
+    <t>11385</t>
+  </si>
+  <si>
+    <t>83550</t>
+  </si>
+  <si>
+    <t>83188</t>
+  </si>
+  <si>
+    <t>23346</t>
+  </si>
+  <si>
+    <t>68094</t>
+  </si>
+  <si>
+    <t>49897</t>
+  </si>
+  <si>
+    <t>17868</t>
   </si>
 </sst>
 </file>
@@ -8388,7 +8421,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="788">
   <si>
     <t>Title</t>
   </si>
@@ -2876,6 +2876,9 @@
   </si>
   <si>
     <t>17868</t>
+  </si>
+  <si>
+    <t>52995</t>
   </si>
 </sst>
 </file>
@@ -8421,7 +8424,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">

--- a/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/NoTool/Excel/Issue.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="813">
   <si>
     <t>Title</t>
   </si>
@@ -2879,6 +2879,81 @@
   </si>
   <si>
     <t>52995</t>
+  </si>
+  <si>
+    <t>57804</t>
+  </si>
+  <si>
+    <t>86643</t>
+  </si>
+  <si>
+    <t>74538</t>
+  </si>
+  <si>
+    <t>56364</t>
+  </si>
+  <si>
+    <t>92376</t>
+  </si>
+  <si>
+    <t>92416</t>
+  </si>
+  <si>
+    <t>54460</t>
+  </si>
+  <si>
+    <t>78817</t>
+  </si>
+  <si>
+    <t>74756</t>
+  </si>
+  <si>
+    <t>39773</t>
+  </si>
+  <si>
+    <t>33819</t>
+  </si>
+  <si>
+    <t>66498</t>
+  </si>
+  <si>
+    <t>23370</t>
+  </si>
+  <si>
+    <t>71175</t>
+  </si>
+  <si>
+    <t>35246</t>
+  </si>
+  <si>
+    <t>53914</t>
+  </si>
+  <si>
+    <t>18290</t>
+  </si>
+  <si>
+    <t>41705</t>
+  </si>
+  <si>
+    <t>15831</t>
+  </si>
+  <si>
+    <t>88591</t>
+  </si>
+  <si>
+    <t>20711</t>
+  </si>
+  <si>
+    <t>96735</t>
+  </si>
+  <si>
+    <t>30775</t>
+  </si>
+  <si>
+    <t>95719</t>
+  </si>
+  <si>
+    <t>20158</t>
   </si>
 </sst>
 </file>
@@ -8424,7 +8499,7 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="14" t="s">
